--- a/medicine/Enfance/Dominique_Jolin/Dominique_Jolin.xlsx
+++ b/medicine/Enfance/Dominique_Jolin/Dominique_Jolin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Jolin, née le 24 octobre 1964[1] au Québec, est écrivaine, illustratrice, scénariste et productrice de contenu. Elle est la créatrice des personnages Toupie et Binou.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Jolin, née le 24 octobre 1964 au Québec, est écrivaine, illustratrice, scénariste et productrice de contenu. Elle est la créatrice des personnages Toupie et Binou.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études universitaires en littérature de jeunesse, création littéraire et scénarisation, elle publie un premier album pour enfants en 1992, C’est pas juste! pour lequel elle recevra le prix M. Christie[2],[3].
-Elle poursuit sa carrière d'écrivaine et illustratrice par la publication d'une centaine d’albums pour enfants qui sont publiés en français, anglais, espagnol, catalan et coréen, et dont plusieurs lui valent prix et distinctions[3],[4],[5],[6],[7].
-En 1996, elle crée deux personnages qui se démarquent : Toupie et Binou[8].
-Dominique Jolin propose en 2005 ses personnages à la boîte de production Spectra animation. Puis, en collaboration avec Raymond Lebrun, auteur et réalisateur, elle adapte sa série littéraire Toupie et Binou[9] sous forme de série télévisée d’animation.
-Elle créée en 2013 avec Raymond Lebrun deux nouvelles séries animées pour enfants : YaYa et Zouk[10] et Idées de Génie[11].
-De 2016 à 2023, Dominique Jolin et Raymond Lebrun écrivent et réalisent un long métrage d’animation Toupie et Binou, le film sorti en salle en août 2023[12],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études universitaires en littérature de jeunesse, création littéraire et scénarisation, elle publie un premier album pour enfants en 1992, C’est pas juste! pour lequel elle recevra le prix M. Christie,.
+Elle poursuit sa carrière d'écrivaine et illustratrice par la publication d'une centaine d’albums pour enfants qui sont publiés en français, anglais, espagnol, catalan et coréen, et dont plusieurs lui valent prix et distinctions.
+En 1996, elle crée deux personnages qui se démarquent : Toupie et Binou.
+Dominique Jolin propose en 2005 ses personnages à la boîte de production Spectra animation. Puis, en collaboration avec Raymond Lebrun, auteur et réalisateur, elle adapte sa série littéraire Toupie et Binou sous forme de série télévisée d’animation.
+Elle créée en 2013 avec Raymond Lebrun deux nouvelles séries animées pour enfants : YaYa et Zouk et Idées de Génie.
+De 2016 à 2023, Dominique Jolin et Raymond Lebrun écrivent et réalisent un long métrage d’animation Toupie et Binou, le film sorti en salle en août 2023,.
 </t>
         </is>
       </c>
@@ -549,10 +563,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums choisis
-Au cinéma avec papa, Raton Laveur, 1991
+          <t>Albums choisis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au cinéma avec papa, Raton Laveur, 1991
 Nom de nom!, texte de Pierrette Dubé, Raton Laveur, 1992
-C’est pas juste![2],[3], Raton Laveur, 1992
+C’est pas juste! Raton Laveur, 1992
 Qu'est-ce que vous faites là?, Raton Laveur, 1993
 Mario le pingouin, texte de Michel St-Denis, Héritage, 1994
 Un prof extra, texte de Dorothée Roy, Raton Laveur, 1994
@@ -561,9 +580,43 @@
 Marie-Baba et les quarante rameurs, texte de Carole Tremblay, Dominique et cie, 1998
 Attends une minute!, 400 coups, 1999
 Destructotor, texte de Carole Tremblay, Dominique et cie, 2000
-Chut fais dodo, La Bagnole, 2016
-Toupie et Binou
-Toupie a peur, Dominique et cie, 1996
+Chut fais dodo, La Bagnole, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Toupie et Binou</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toupie a peur, Dominique et cie, 1996
 Toupie dit bonne nuit, Dominique et cie, 1996
 Le bobo de Toupie, Dominique et cie, 1996
 Toupie se fâche, Dominique et cie, 1996
@@ -582,16 +635,118 @@
 Robinson Toupie, Dominique et cie, 2002
 L'Halloween de Toupie, Dominique et cie, 2002
 Abracadabre, Toupie!, Dominique et cie, 2003
-Toupie et le sommeil perdu, Dominique et cie, 2003
-Roméo et Juliette
-Roméo le rat romantique, texte de Carole Tremblay, Dominique et cie, 1997
-Juliette la rate romantique, texte de Carole Tremblay, Dominique et cie, 2003
-Bambou
-Bambou à l'école des singes, texte de Lucie Papineau, Dominique et cie, 1999
+Toupie et le sommeil perdu, Dominique et cie, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roméo et Juliette</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Roméo le rat romantique, texte de Carole Tremblay, Dominique et cie, 1997
+Juliette la rate romantique, texte de Carole Tremblay, Dominique et cie, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bambou</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bambou à l'école des singes, texte de Lucie Papineau, Dominique et cie, 1999
 Bambou à la plage, texte de Lucie Papineau, Dominique et cie, 2000
-Bambou à l'école des bambous, texte de Lucie Papineau, Dominique et cie, 2001
-Binou
-Coucou, Binou!, Dominique et cie, 2001
+Bambou à l'école des bambous, texte de Lucie Papineau, Dominique et cie, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Binou</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Coucou, Binou!, Dominique et cie, 2001
 Comment ça va, Binou?, Dominique et cie, 2001
 Binou en couleurs, Dominique et cie, 2001
 Binou et les sons, Dominique et cie, 2001
@@ -603,40 +758,76 @@
 À l’eau, Binou!, Dominique et cie, 2002
 Ça flotte, Binou?, Dominique et cie, 2002
 Binou-la-bulle, Dominique et cie, 2004
-Le bébé de Binou, Dominique et cie, 2004
-YaYa et Zouk
-Si j'étais toute seule, La Bagnole, 2013
+Le bébé de Binou, Dominique et cie, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YaYa et Zouk</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Si j'étais toute seule, La Bagnole, 2013
 Si j'étais Super YaYa, La Bagnole, 2013
 Si j'étais en colère, La Bagnole, 2013
 Si j'étais un bébé, La Bagnole, 2013</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dominique_Jolin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Séries télé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Toupie et Binou, saison I - 104 X 5 minutes (Co-scénariste avec Raymond Lebrun)
 Toupie et Binou, saison II - 6 X 22 minutes, 78 X 2 minutes (Co-scénariste avec Raymond Lebrun)
@@ -645,77 +836,81 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dominique_Jolin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Long métrage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Toupie et Binou le film - 80 minutes (Co-scénariste et co-réalisation avec Raymond Lebrun)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dominique_Jolin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Jolin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1992- Prix du livre M. Christie pour l’album C’est pas juste![2]
-1993- Prix livromagie (livre préféré des enfants) pour Au cinéma avec Papa[6]
-1995- Prix livromagie (livre préféré des enfants) pour Qu’est-ce que vous faites-là?[6]
-1996- Prix livromagie (livre préféré des enfants) pour Un prof extra[6],[7]
-1997- Prix livromagie (livre préféré des enfants) pour Cruelle Cruellina[6],[7]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1992- Prix du livre M. Christie pour l’album C’est pas juste!
+1993- Prix livromagie (livre préféré des enfants) pour Au cinéma avec Papa
+1995- Prix livromagie (livre préféré des enfants) pour Qu’est-ce que vous faites-là?
+1996- Prix livromagie (livre préféré des enfants) pour Un prof extra,
+1997- Prix livromagie (livre préféré des enfants) pour Cruelle Cruellina,
 1997- Finaliste au prix M. Christie pour Roméo le rat romantique
 1998- Finaliste au prix M. Christie pour Marie-Baba et les quarante rameurs
 2000- Sceau d’argent du prix M. Christie pour Destructotor
-2002- Prix d’illustration GVL (Prix Illustration jeunesse du Salon du livre de Trois-Rivières) pour Le Petit Toupie Rouge[5]
+2002- Prix d’illustration GVL (Prix Illustration jeunesse du Salon du livre de Trois-Rivières) pour Le Petit Toupie Rouge
 2006- Prix Boomerang pour le site web de Toupie et Binou
-2007- Prix d’excellence pour Toupie et Binou catégorie: Nouveaux médias canadiens[14]
+2007- Prix d’excellence pour Toupie et Binou catégorie: Nouveaux médias canadiens
 2007- Finaliste aux Gemini Awards pour Toupie et Binou, catégorie: Série animée préscolaire
 2016- Nomination aux prix Gémeaux pour Toupie et Binou, catégorie: Meilleure série télévisée
 2019- Nomination aux prix Gémeaux pour YaYa et Zouk, catégorie: Meilleure émission ou série animée
-1988 - 1re prix du Concours littéraire Lurelu pour Mon frère est un voleur de rêves[15].</t>
+1988 - 1re prix du Concours littéraire Lurelu pour Mon frère est un voleur de rêves.</t>
         </is>
       </c>
     </row>
